--- a/Documents/Table_List/10_Shop_Table.xlsx
+++ b/Documents/Table_List/10_Shop_Table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{860528AE-711E-42F5-B829-6F39B450941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7037F9-3489-41DF-A765-90AB768BD677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{F3AEB3C6-B2BC-4D0E-87E9-D4DE8EDEA4C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3AEB3C6-B2BC-4D0E-87E9-D4DE8EDEA4C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop_Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shop_Table!$B$5:$T$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,23 +634,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,8 +968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9874A5A1-2487-450F-80AE-AB09FE6EEC4D}">
   <dimension ref="B2:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -990,13 +996,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="11"/>
@@ -1007,71 +1013,71 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -1785,6 +1791,7 @@
       <c r="B16" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:T5" xr:uid="{9874A5A1-2487-450F-80AE-AB09FE6EEC4D}"/>
   <mergeCells count="6">
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="B2:B3"/>
